--- a/test_signup/Utrecht/NTDS_Aachen.xlsx
+++ b/test_signup/Utrecht/NTDS_Aachen.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="12195"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="128">
   <si>
     <t>Agnes</t>
   </si>
@@ -390,9 +390,6 @@
   </si>
   <si>
     <t>Ben je op een eerder ETDS of NTDS vrijwilliger geweest?</t>
-  </si>
-  <si>
-    <t>Doe je mee aan de Same Seks wedstrijd?</t>
   </si>
   <si>
     <t>Ja</t>
@@ -778,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X54"/>
+  <dimension ref="A1:W54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,10 +793,9 @@
     <col min="21" max="21" width="10.42578125" customWidth="1"/>
     <col min="22" max="22" width="10.28515625" customWidth="1"/>
     <col min="23" max="23" width="13.28515625" customWidth="1"/>
-    <col min="24" max="24" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>99</v>
       </c>
@@ -869,11 +865,8 @@
       <c r="W1" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="X1" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -884,27 +877,27 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -928,27 +921,27 @@
         <v>40</v>
       </c>
       <c r="J3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H4" s="1">
         <v>11</v>
@@ -957,16 +950,16 @@
         <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -977,10 +970,10 @@
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H5" s="1">
         <v>7</v>
@@ -989,13 +982,13 @@
         <v>7</v>
       </c>
       <c r="J5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1006,27 +999,27 @@
         <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1037,10 +1030,10 @@
         <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H7" s="1">
         <v>27</v>
@@ -1049,13 +1042,13 @@
         <v>27</v>
       </c>
       <c r="J7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1066,10 +1059,10 @@
         <v>13</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H8" s="1">
         <v>4</v>
@@ -1078,13 +1071,13 @@
         <v>4</v>
       </c>
       <c r="J8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1095,21 +1088,21 @@
         <v>21</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1120,10 +1113,10 @@
         <v>23</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H10" s="1">
         <v>42</v>
@@ -1132,13 +1125,13 @@
         <v>42</v>
       </c>
       <c r="J10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1149,24 +1142,24 @@
         <v>27</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1177,10 +1170,10 @@
         <v>9</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H12" s="1">
         <v>3</v>
@@ -1189,13 +1182,13 @@
         <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1206,21 +1199,21 @@
         <v>29</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1231,21 +1224,21 @@
         <v>31</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1256,10 +1249,10 @@
         <v>33</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H15" s="1">
         <v>34</v>
@@ -1268,13 +1261,13 @@
         <v>34</v>
       </c>
       <c r="J15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1285,21 +1278,21 @@
         <v>37</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1313,10 +1306,10 @@
         <v>39</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H17" s="1">
         <v>21</v>
@@ -1325,10 +1318,10 @@
         <v>21</v>
       </c>
       <c r="J17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1342,18 +1335,18 @@
         <v>43</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1367,21 +1360,21 @@
         <v>45</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1395,21 +1388,21 @@
         <v>47</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1423,10 +1416,10 @@
         <v>49</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H21" s="1">
         <v>45</v>
@@ -1435,10 +1428,10 @@
         <v>45</v>
       </c>
       <c r="J21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1452,10 +1445,10 @@
         <v>41</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H22" s="1">
         <v>16</v>
@@ -1464,10 +1457,10 @@
         <v>16</v>
       </c>
       <c r="J22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1481,18 +1474,18 @@
         <v>53</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1506,16 +1499,16 @@
         <v>55</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1529,24 +1522,24 @@
         <v>56</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1560,18 +1553,18 @@
         <v>58</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1585,18 +1578,18 @@
         <v>60</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1610,10 +1603,10 @@
         <v>19</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H28" s="1">
         <v>6</v>
@@ -1622,10 +1615,10 @@
         <v>6</v>
       </c>
       <c r="J28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -1639,18 +1632,18 @@
         <v>62</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -1664,21 +1657,21 @@
         <v>64</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -1692,10 +1685,10 @@
         <v>66</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H31" s="1">
         <v>39</v>
@@ -1704,10 +1697,10 @@
         <v>39</v>
       </c>
       <c r="J31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -1721,18 +1714,18 @@
         <v>69</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -1746,18 +1739,18 @@
         <v>71</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -1771,21 +1764,21 @@
         <v>72</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -1799,10 +1792,10 @@
         <v>35</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H35" s="1">
         <v>14</v>
@@ -1811,10 +1804,10 @@
         <v>14</v>
       </c>
       <c r="J35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -1828,10 +1821,10 @@
         <v>74</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H36" s="1">
         <v>38</v>
@@ -1840,10 +1833,10 @@
         <v>38</v>
       </c>
       <c r="J36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -1857,21 +1850,21 @@
         <v>78</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -1885,18 +1878,18 @@
         <v>80</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -1910,10 +1903,10 @@
         <v>76</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H39" s="1">
         <v>35</v>
@@ -1922,10 +1915,10 @@
         <v>35</v>
       </c>
       <c r="J39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -1939,10 +1932,10 @@
         <v>67</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H40" s="1">
         <v>30</v>
@@ -1951,10 +1944,10 @@
         <v>30</v>
       </c>
       <c r="J40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -1980,10 +1973,10 @@
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -1997,18 +1990,18 @@
         <v>82</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2022,10 +2015,10 @@
         <v>25</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H43" s="1">
         <v>9</v>
@@ -2034,10 +2027,10 @@
         <v>9</v>
       </c>
       <c r="J43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2051,10 +2044,10 @@
         <v>60</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H44" s="1">
         <v>49</v>
@@ -2063,10 +2056,10 @@
         <v>49</v>
       </c>
       <c r="J44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2080,18 +2073,18 @@
         <v>86</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2105,10 +2098,10 @@
         <v>51</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H46" s="5">
         <v>20</v>
@@ -2117,10 +2110,10 @@
         <v>20</v>
       </c>
       <c r="J46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2134,18 +2127,18 @@
         <v>87</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2159,24 +2152,24 @@
         <v>89</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2190,24 +2183,24 @@
         <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2221,10 +2214,10 @@
         <v>85</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H50" s="1">
         <v>43</v>
@@ -2233,10 +2226,10 @@
         <v>43</v>
       </c>
       <c r="J50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2250,21 +2243,21 @@
         <v>93</v>
       </c>
       <c r="F51" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2278,18 +2271,18 @@
         <v>95</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -2303,21 +2296,21 @@
         <v>89</v>
       </c>
       <c r="F53" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K53" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -2331,18 +2324,18 @@
         <v>98</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
